--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H2">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I2">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J2">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N2">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O2">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P2">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q2">
-        <v>131.5555165546951</v>
+        <v>137.2292805871238</v>
       </c>
       <c r="R2">
-        <v>131.5555165546951</v>
+        <v>548.917122348495</v>
       </c>
       <c r="S2">
-        <v>0.1288698134237705</v>
+        <v>0.1203777876682706</v>
       </c>
       <c r="T2">
-        <v>0.1288698134237705</v>
+        <v>0.07847049290456076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H3">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I3">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J3">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N3">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O3">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P3">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q3">
-        <v>140.3193738949408</v>
+        <v>162.159603949233</v>
       </c>
       <c r="R3">
-        <v>140.3193738949408</v>
+        <v>972.957623695398</v>
       </c>
       <c r="S3">
-        <v>0.1374547567989156</v>
+        <v>0.1422467150527585</v>
       </c>
       <c r="T3">
-        <v>0.1374547567989156</v>
+        <v>0.1390892380619822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H4">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I4">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J4">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N4">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O4">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P4">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q4">
-        <v>64.74844278091267</v>
+        <v>68.48684757344252</v>
       </c>
       <c r="R4">
-        <v>64.74844278091267</v>
+        <v>410.9210854406551</v>
       </c>
       <c r="S4">
-        <v>0.06342660466987546</v>
+        <v>0.06007679381537648</v>
       </c>
       <c r="T4">
-        <v>0.06342660466987546</v>
+        <v>0.05874325796478544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H5">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I5">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J5">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N5">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O5">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P5">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q5">
-        <v>94.8071044371265</v>
+        <v>97.19239014695701</v>
       </c>
       <c r="R5">
-        <v>94.8071044371265</v>
+        <v>583.1543408817421</v>
       </c>
       <c r="S5">
-        <v>0.09287161937432555</v>
+        <v>0.08525735072009046</v>
       </c>
       <c r="T5">
-        <v>0.09287161937432555</v>
+        <v>0.08336487732909943</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H6">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I6">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J6">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N6">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O6">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P6">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q6">
-        <v>76.50860930845813</v>
+        <v>83.12893567830901</v>
       </c>
       <c r="R6">
-        <v>76.50860930845813</v>
+        <v>498.7736140698541</v>
       </c>
       <c r="S6">
-        <v>0.07494668764265724</v>
+        <v>0.07292086153450081</v>
       </c>
       <c r="T6">
-        <v>0.07494668764265724</v>
+        <v>0.07130222350579574</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H7">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I7">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J7">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N7">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O7">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P7">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q7">
-        <v>127.1219001357488</v>
+        <v>147.828878563014</v>
       </c>
       <c r="R7">
-        <v>127.1219001357488</v>
+        <v>591.3155142520561</v>
       </c>
       <c r="S7">
-        <v>0.1245267091916905</v>
+        <v>0.1296757753065624</v>
       </c>
       <c r="T7">
-        <v>0.1245267091916905</v>
+        <v>0.08453155854740096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H8">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I8">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J8">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N8">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O8">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P8">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q8">
-        <v>4.241792100169572</v>
+        <v>4.75810590461</v>
       </c>
       <c r="R8">
-        <v>4.241792100169572</v>
+        <v>28.54863542766</v>
       </c>
       <c r="S8">
-        <v>0.004155196002776577</v>
+        <v>0.004173819609326368</v>
       </c>
       <c r="T8">
-        <v>0.004155196002776577</v>
+        <v>0.004081172553292696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H9">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I9">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J9">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N9">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O9">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P9">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q9">
-        <v>4.524368322029582</v>
+        <v>5.622506842118222</v>
       </c>
       <c r="R9">
-        <v>4.524368322029582</v>
+        <v>50.60256157906399</v>
       </c>
       <c r="S9">
-        <v>0.004432003436951741</v>
+        <v>0.004932073766678428</v>
       </c>
       <c r="T9">
-        <v>0.004432003436951741</v>
+        <v>0.007233893401528045</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H10">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I10">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J10">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N10">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O10">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P10">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q10">
-        <v>2.087707458259036</v>
+        <v>2.374622037171112</v>
       </c>
       <c r="R10">
-        <v>2.087707458259036</v>
+        <v>21.37159833454</v>
       </c>
       <c r="S10">
-        <v>0.002045086953973535</v>
+        <v>0.00208302299742437</v>
       </c>
       <c r="T10">
-        <v>0.002045086953973535</v>
+        <v>0.003055178618394289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H11">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I11">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J11">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N11">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O11">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P11">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q11">
-        <v>3.056899757405137</v>
+        <v>3.369919914050667</v>
       </c>
       <c r="R11">
-        <v>3.056899757405137</v>
+        <v>30.329279226456</v>
       </c>
       <c r="S11">
-        <v>0.002994493212515232</v>
+        <v>0.002956100200606397</v>
       </c>
       <c r="T11">
-        <v>0.002994493212515232</v>
+        <v>0.004335724635729398</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H12">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I12">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J12">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N12">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O12">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P12">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q12">
-        <v>2.466894760925141</v>
+        <v>2.882302362896889</v>
       </c>
       <c r="R12">
-        <v>2.466894760925141</v>
+        <v>25.940721266072</v>
       </c>
       <c r="S12">
-        <v>0.002416533155751987</v>
+        <v>0.002528361151148615</v>
       </c>
       <c r="T12">
-        <v>0.002416533155751987</v>
+        <v>0.003708357967300112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H13">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I13">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J13">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N13">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O13">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P13">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q13">
-        <v>4.098837402460263</v>
+        <v>5.125622293968</v>
       </c>
       <c r="R13">
-        <v>4.098837402460263</v>
+        <v>30.753733763808</v>
       </c>
       <c r="S13">
-        <v>0.004015159722244084</v>
+        <v>0.004496205689712903</v>
       </c>
       <c r="T13">
-        <v>0.004015159722244084</v>
+        <v>0.004396402569438383</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H14">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I14">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J14">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N14">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O14">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P14">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q14">
-        <v>71.52446507263593</v>
+        <v>0.48128307062</v>
       </c>
       <c r="R14">
-        <v>71.52446507263593</v>
+        <v>2.88769842372</v>
       </c>
       <c r="S14">
-        <v>0.07006429460761851</v>
+        <v>0.0004221824310056449</v>
       </c>
       <c r="T14">
-        <v>0.07006429460761851</v>
+        <v>0.0004128111684684686</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H15">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I15">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J15">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N15">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O15">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P15">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q15">
-        <v>76.28922313561966</v>
+        <v>0.5687173450542221</v>
       </c>
       <c r="R15">
-        <v>76.28922313561966</v>
+        <v>5.118456105487999</v>
       </c>
       <c r="S15">
-        <v>0.07473178023396874</v>
+        <v>0.0004988799439397736</v>
       </c>
       <c r="T15">
-        <v>0.07473178023396874</v>
+        <v>0.0007317093185025566</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H16">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I16">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J16">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N16">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O16">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P16">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q16">
-        <v>35.20261145617216</v>
+        <v>0.2401933476311111</v>
       </c>
       <c r="R16">
-        <v>35.20261145617216</v>
+        <v>2.16174012868</v>
       </c>
       <c r="S16">
-        <v>0.03448395087636096</v>
+        <v>0.0002106980644128074</v>
       </c>
       <c r="T16">
-        <v>0.03448395087636096</v>
+        <v>0.0003090317399889599</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H17">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I17">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J17">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N17">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O17">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P17">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q17">
-        <v>51.54498729919658</v>
+        <v>0.3408678655946667</v>
       </c>
       <c r="R17">
-        <v>51.54498729919658</v>
+        <v>3.067810790352</v>
       </c>
       <c r="S17">
-        <v>0.05049269745686709</v>
+        <v>0.0002990099443204509</v>
       </c>
       <c r="T17">
-        <v>0.05049269745686709</v>
+        <v>0.0004385591468287555</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H18">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I18">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J18">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N18">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O18">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P18">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q18">
-        <v>41.59641113919875</v>
+        <v>0.2915452828248889</v>
       </c>
       <c r="R18">
-        <v>41.59641113919875</v>
+        <v>2.623907545424</v>
       </c>
       <c r="S18">
-        <v>0.04074722127200438</v>
+        <v>0.0002557440802824803</v>
       </c>
       <c r="T18">
-        <v>0.04074722127200438</v>
+        <v>0.0003751009215097805</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H19">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I19">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J19">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.25809564156138</v>
+        <v>4.927428</v>
       </c>
       <c r="N19">
-        <v>4.25809564156138</v>
+        <v>9.854856</v>
       </c>
       <c r="O19">
-        <v>0.2001727561958759</v>
+        <v>0.2123898992999982</v>
       </c>
       <c r="P19">
-        <v>0.2001727561958759</v>
+        <v>0.1639792206754944</v>
       </c>
       <c r="Q19">
-        <v>69.11398430370103</v>
+        <v>0.518457404256</v>
       </c>
       <c r="R19">
-        <v>69.11398430370103</v>
+        <v>3.110744425536</v>
       </c>
       <c r="S19">
-        <v>0.06770302375338505</v>
+        <v>0.0004547918276445992</v>
       </c>
       <c r="T19">
-        <v>0.06770302375338505</v>
+        <v>0.0004446967282192922</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H20">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I20">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J20">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.40660477122126</v>
+        <v>4.5741225</v>
       </c>
       <c r="N20">
-        <v>4.40660477122126</v>
+        <v>9.148244999999999</v>
       </c>
       <c r="O20">
-        <v>0.2071541592235843</v>
+        <v>0.1971611593636388</v>
       </c>
       <c r="P20">
-        <v>0.2071541592235843</v>
+        <v>0.1522216139584879</v>
       </c>
       <c r="Q20">
-        <v>4.149568544850333</v>
+        <v>0.6497952682274999</v>
       </c>
       <c r="R20">
-        <v>4.149568544850333</v>
+        <v>3.898771609364999</v>
       </c>
       <c r="S20">
-        <v>0.004064855189418698</v>
+        <v>0.0005700016533780214</v>
       </c>
       <c r="T20">
-        <v>0.004064855189418698</v>
+        <v>0.0005573492198608185</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H21">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I21">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J21">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.70016034822189</v>
+        <v>5.405099333333332</v>
       </c>
       <c r="N21">
-        <v>4.70016034822189</v>
+        <v>16.215298</v>
       </c>
       <c r="O21">
-        <v>0.2209541848433329</v>
+        <v>0.2329792547172996</v>
       </c>
       <c r="P21">
-        <v>0.2209541848433329</v>
+        <v>0.2698133721143062</v>
       </c>
       <c r="Q21">
-        <v>4.426001093655842</v>
+        <v>0.7678430061939998</v>
       </c>
       <c r="R21">
-        <v>4.426001093655842</v>
+        <v>6.910587055745999</v>
       </c>
       <c r="S21">
-        <v>0.00433564437349683</v>
+        <v>0.0006735533551347699</v>
       </c>
       <c r="T21">
-        <v>0.00433564437349683</v>
+        <v>0.0009879035476324355</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H22">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I22">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J22">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.16882426795757</v>
+        <v>2.282801666666667</v>
       </c>
       <c r="N22">
-        <v>2.16882426795757</v>
+        <v>6.848405000000001</v>
       </c>
       <c r="O22">
-        <v>0.1019562658912887</v>
+        <v>0.09839697629375843</v>
       </c>
       <c r="P22">
-        <v>0.1019562658912887</v>
+        <v>0.1139535793085317</v>
       </c>
       <c r="Q22">
-        <v>2.042317255316406</v>
+        <v>0.324292521965</v>
       </c>
       <c r="R22">
-        <v>2.042317255316406</v>
+        <v>2.918632697685</v>
       </c>
       <c r="S22">
-        <v>0.002000623391078764</v>
+        <v>0.0002844700211535881</v>
       </c>
       <c r="T22">
-        <v>0.002000623391078764</v>
+        <v>0.0004172333801773924</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H23">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I23">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J23">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.17567404012754</v>
+        <v>3.239614</v>
       </c>
       <c r="N23">
-        <v>3.17567404012754</v>
+        <v>9.718842</v>
       </c>
       <c r="O23">
-        <v>0.1492881980356192</v>
+        <v>0.1396390350565984</v>
       </c>
       <c r="P23">
-        <v>0.1492881980356192</v>
+        <v>0.1617160247727885</v>
       </c>
       <c r="Q23">
-        <v>2.990437715601827</v>
+        <v>0.460216325226</v>
       </c>
       <c r="R23">
-        <v>2.990437715601827</v>
+        <v>4.141946927034</v>
       </c>
       <c r="S23">
-        <v>0.002929387991911316</v>
+        <v>0.0004037026416119345</v>
       </c>
       <c r="T23">
-        <v>0.002929387991911316</v>
+        <v>0.0005921123676345089</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.941670233725161</v>
+        <v>0.142059</v>
       </c>
       <c r="H24">
-        <v>0.941670233725161</v>
+        <v>0.426177</v>
       </c>
       <c r="I24">
-        <v>0.01962236821434728</v>
+        <v>0.00289104433762598</v>
       </c>
       <c r="J24">
-        <v>0.01962236821434728</v>
+        <v>0.003661432863356791</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.56274470009006</v>
+        <v>2.770851333333333</v>
       </c>
       <c r="N24">
-        <v>2.56274470009006</v>
+        <v>8.312554</v>
       </c>
       <c r="O24">
-        <v>0.1204744358102991</v>
+        <v>0.1194336752687066</v>
       </c>
       <c r="P24">
-        <v>0.1204744358102991</v>
+        <v>0.1383161891703911</v>
       </c>
       <c r="Q24">
-        <v>2.413260400711724</v>
+        <v>0.393624369562</v>
       </c>
       <c r="R24">
-        <v>2.413260400711724</v>
+        <v>3.542619326058</v>
       </c>
       <c r="S24">
-        <v>0.002363993739885434</v>
+        <v>0.0003452880506074543</v>
       </c>
       <c r="T24">
-        <v>0.002363993739885434</v>
+        <v>0.0005064354405627447</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.142059</v>
+      </c>
+      <c r="H25">
+        <v>0.426177</v>
+      </c>
+      <c r="I25">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J25">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.927428</v>
+      </c>
+      <c r="N25">
+        <v>9.854856</v>
+      </c>
+      <c r="O25">
+        <v>0.2123898992999982</v>
+      </c>
+      <c r="P25">
+        <v>0.1639792206754944</v>
+      </c>
+      <c r="Q25">
+        <v>0.699985494252</v>
+      </c>
+      <c r="R25">
+        <v>4.199912965512</v>
+      </c>
+      <c r="S25">
+        <v>0.0006140286157402119</v>
+      </c>
+      <c r="T25">
+        <v>0.0006003989074888907</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.833521</v>
+      </c>
+      <c r="H26">
+        <v>50.500563</v>
+      </c>
+      <c r="I26">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J26">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.5741225</v>
+      </c>
+      <c r="N26">
+        <v>9.148244999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1971611593636388</v>
+      </c>
+      <c r="P26">
+        <v>0.1522216139584879</v>
+      </c>
+      <c r="Q26">
+        <v>76.9985871603225</v>
+      </c>
+      <c r="R26">
+        <v>461.9915229619349</v>
+      </c>
+      <c r="S26">
+        <v>0.0675433080774442</v>
+      </c>
+      <c r="T26">
+        <v>0.06604403661056818</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>16.833521</v>
+      </c>
+      <c r="H27">
+        <v>50.500563</v>
+      </c>
+      <c r="I27">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J27">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.405099333333332</v>
+      </c>
+      <c r="N27">
+        <v>16.215298</v>
+      </c>
+      <c r="O27">
+        <v>0.2329792547172996</v>
+      </c>
+      <c r="P27">
+        <v>0.2698133721143062</v>
+      </c>
+      <c r="Q27">
+        <v>90.98685313475265</v>
+      </c>
+      <c r="R27">
+        <v>818.8816782127739</v>
+      </c>
+      <c r="S27">
+        <v>0.07981384177195114</v>
+      </c>
+      <c r="T27">
+        <v>0.117063298453777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>16.833521</v>
+      </c>
+      <c r="H28">
+        <v>50.500563</v>
+      </c>
+      <c r="I28">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J28">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.282801666666667</v>
+      </c>
+      <c r="N28">
+        <v>6.848405000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.09839697629375843</v>
+      </c>
+      <c r="P28">
+        <v>0.1139535793085317</v>
+      </c>
+      <c r="Q28">
+        <v>38.42758979466834</v>
+      </c>
+      <c r="R28">
+        <v>345.848308152015</v>
+      </c>
+      <c r="S28">
+        <v>0.03370875534080466</v>
+      </c>
+      <c r="T28">
+        <v>0.04944077367232712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>16.833521</v>
+      </c>
+      <c r="H29">
+        <v>50.500563</v>
+      </c>
+      <c r="I29">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J29">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3.239614</v>
+      </c>
+      <c r="N29">
+        <v>9.718842</v>
+      </c>
+      <c r="O29">
+        <v>0.1396390350565984</v>
+      </c>
+      <c r="P29">
+        <v>0.1617160247727885</v>
+      </c>
+      <c r="Q29">
+        <v>54.53411030089401</v>
+      </c>
+      <c r="R29">
+        <v>490.806992708046</v>
+      </c>
+      <c r="S29">
+        <v>0.04783742596618287</v>
+      </c>
+      <c r="T29">
+        <v>0.0701633544860602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>16.833521</v>
+      </c>
+      <c r="H30">
+        <v>50.500563</v>
+      </c>
+      <c r="I30">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J30">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.770851333333333</v>
+      </c>
+      <c r="N30">
+        <v>8.312554</v>
+      </c>
+      <c r="O30">
+        <v>0.1194336752687066</v>
+      </c>
+      <c r="P30">
+        <v>0.1383161891703911</v>
+      </c>
+      <c r="Q30">
+        <v>46.64318410754467</v>
+      </c>
+      <c r="R30">
+        <v>419.788656967902</v>
+      </c>
+      <c r="S30">
+        <v>0.04091549040152082</v>
+      </c>
+      <c r="T30">
+        <v>0.06001092239039565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>16.833521</v>
+      </c>
+      <c r="H31">
+        <v>50.500563</v>
+      </c>
+      <c r="I31">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J31">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.927428</v>
+      </c>
+      <c r="N31">
+        <v>9.854856</v>
+      </c>
+      <c r="O31">
+        <v>0.2123898992999982</v>
+      </c>
+      <c r="P31">
+        <v>0.1639792206754944</v>
+      </c>
+      <c r="Q31">
+        <v>82.94596271398801</v>
+      </c>
+      <c r="R31">
+        <v>497.675776283928</v>
+      </c>
+      <c r="S31">
+        <v>0.07276035729988097</v>
+      </c>
+      <c r="T31">
+        <v>0.07114528201374992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.01536</v>
+      </c>
+      <c r="H32">
+        <v>2.03072</v>
+      </c>
+      <c r="I32">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J32">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.5741225</v>
+      </c>
+      <c r="N32">
+        <v>9.148244999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.1971611593636388</v>
+      </c>
+      <c r="P32">
+        <v>0.1522216139584879</v>
+      </c>
+      <c r="Q32">
+        <v>4.6443810216</v>
+      </c>
+      <c r="R32">
+        <v>18.5775240864</v>
+      </c>
+      <c r="S32">
+        <v>0.004074059924213939</v>
+      </c>
+      <c r="T32">
+        <v>0.002655751501736981</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.01536</v>
+      </c>
+      <c r="H33">
+        <v>2.03072</v>
+      </c>
+      <c r="I33">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J33">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.405099333333332</v>
+      </c>
+      <c r="N33">
+        <v>16.215298</v>
+      </c>
+      <c r="O33">
+        <v>0.2329792547172996</v>
+      </c>
+      <c r="P33">
+        <v>0.2698133721143062</v>
+      </c>
+      <c r="Q33">
+        <v>5.488121659093332</v>
+      </c>
+      <c r="R33">
+        <v>32.92872995456</v>
+      </c>
+      <c r="S33">
+        <v>0.004814190826837018</v>
+      </c>
+      <c r="T33">
+        <v>0.004707329330883974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.01536</v>
+      </c>
+      <c r="H34">
+        <v>2.03072</v>
+      </c>
+      <c r="I34">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J34">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.282801666666667</v>
+      </c>
+      <c r="N34">
+        <v>6.848405000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.09839697629375843</v>
+      </c>
+      <c r="P34">
+        <v>0.1139535793085317</v>
+      </c>
+      <c r="Q34">
+        <v>2.317865500266667</v>
+      </c>
+      <c r="R34">
+        <v>13.9071930016</v>
+      </c>
+      <c r="S34">
+        <v>0.002033236054586525</v>
+      </c>
+      <c r="T34">
+        <v>0.001988103932858494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.941670233725161</v>
-      </c>
-      <c r="H25">
-        <v>0.941670233725161</v>
-      </c>
-      <c r="I25">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="J25">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.25809564156138</v>
-      </c>
-      <c r="N25">
-        <v>4.25809564156138</v>
-      </c>
-      <c r="O25">
-        <v>0.2001727561958759</v>
-      </c>
-      <c r="P25">
-        <v>0.2001727561958759</v>
-      </c>
-      <c r="Q25">
-        <v>4.009721918013194</v>
-      </c>
-      <c r="R25">
-        <v>4.009721918013194</v>
-      </c>
-      <c r="S25">
-        <v>0.003927863528556243</v>
-      </c>
-      <c r="T25">
-        <v>0.003927863528556243</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.01536</v>
+      </c>
+      <c r="H35">
+        <v>2.03072</v>
+      </c>
+      <c r="I35">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J35">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.239614</v>
+      </c>
+      <c r="N35">
+        <v>9.718842</v>
+      </c>
+      <c r="O35">
+        <v>0.1396390350565984</v>
+      </c>
+      <c r="P35">
+        <v>0.1617160247727885</v>
+      </c>
+      <c r="Q35">
+        <v>3.28937447104</v>
+      </c>
+      <c r="R35">
+        <v>19.73624682624</v>
+      </c>
+      <c r="S35">
+        <v>0.002885445583786271</v>
+      </c>
+      <c r="T35">
+        <v>0.002821396807436229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.01536</v>
+      </c>
+      <c r="H36">
+        <v>2.03072</v>
+      </c>
+      <c r="I36">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J36">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.770851333333333</v>
+      </c>
+      <c r="N36">
+        <v>8.312554</v>
+      </c>
+      <c r="O36">
+        <v>0.1194336752687066</v>
+      </c>
+      <c r="P36">
+        <v>0.1383161891703911</v>
+      </c>
+      <c r="Q36">
+        <v>2.813411609813333</v>
+      </c>
+      <c r="R36">
+        <v>16.88046965888</v>
+      </c>
+      <c r="S36">
+        <v>0.002467930050646455</v>
+      </c>
+      <c r="T36">
+        <v>0.002413148944827095</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.01536</v>
+      </c>
+      <c r="H37">
+        <v>2.03072</v>
+      </c>
+      <c r="I37">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J37">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.927428</v>
+      </c>
+      <c r="N37">
+        <v>9.854856</v>
+      </c>
+      <c r="O37">
+        <v>0.2123898992999982</v>
+      </c>
+      <c r="P37">
+        <v>0.1639792206754944</v>
+      </c>
+      <c r="Q37">
+        <v>5.00311329408</v>
+      </c>
+      <c r="R37">
+        <v>20.01245317632</v>
+      </c>
+      <c r="S37">
+        <v>0.004388740560457145</v>
+      </c>
+      <c r="T37">
+        <v>0.002860881909196977</v>
       </c>
     </row>
   </sheetData>
